--- a/modelos/OBACON4426113/OBACON4426113_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426113/OBACON4426113_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>104.2940336992559</v>
+        <v>104.2981972517904</v>
       </c>
       <c r="C2" t="n">
-        <v>44.10280977690899</v>
+        <v>47.40303755863915</v>
       </c>
       <c r="D2" t="n">
-        <v>162.0264419331082</v>
+        <v>160.217466604566</v>
       </c>
       <c r="E2" t="n">
         <v>108</v>
@@ -496,13 +496,13 @@
         <v>45048</v>
       </c>
       <c r="B3" t="n">
-        <v>136.8915862781425</v>
+        <v>136.8723613781092</v>
       </c>
       <c r="C3" t="n">
-        <v>81.09681419286802</v>
+        <v>79.45619383009674</v>
       </c>
       <c r="D3" t="n">
-        <v>196.4963480828548</v>
+        <v>192.5541427221303</v>
       </c>
       <c r="E3" t="n">
         <v>180</v>
@@ -516,13 +516,13 @@
         <v>45055</v>
       </c>
       <c r="B4" t="n">
-        <v>139.8266579302785</v>
+        <v>139.6251774488827</v>
       </c>
       <c r="C4" t="n">
-        <v>78.31007649465273</v>
+        <v>81.62286102849794</v>
       </c>
       <c r="D4" t="n">
-        <v>198.3561794235591</v>
+        <v>198.1145786911126</v>
       </c>
       <c r="E4" t="n">
         <v>132</v>
@@ -536,13 +536,13 @@
         <v>45062</v>
       </c>
       <c r="B5" t="n">
-        <v>141.1766093387057</v>
+        <v>141.2042528160497</v>
       </c>
       <c r="C5" t="n">
-        <v>82.69702020487527</v>
+        <v>84.41686133932615</v>
       </c>
       <c r="D5" t="n">
-        <v>196.9966780134237</v>
+        <v>198.3257465389063</v>
       </c>
       <c r="E5" t="n">
         <v>48</v>
@@ -617,22 +617,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>13.73418622225119</v>
+        <v>13.70334358665195</v>
       </c>
       <c r="C2" t="n">
-        <v>3.705966300744137</v>
+        <v>3.701802748209573</v>
       </c>
       <c r="D2" t="n">
-        <v>3.705966300744137</v>
+        <v>3.701802748209573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03431450278466794</v>
+        <v>0.03427595137231086</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03431450278466794</v>
+        <v>0.03427595137231086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03491352287360233</v>
+        <v>0.0348736145302181</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3533.824145276735</v>
+        <v>3535.056429075151</v>
       </c>
       <c r="C3" t="n">
-        <v>59.44597669545632</v>
+        <v>59.4563405287876</v>
       </c>
       <c r="D3" t="n">
-        <v>48.03722699694725</v>
+        <v>47.98568962894102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7466544705582863</v>
+        <v>0.7463732517232469</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2394911873436529</v>
+        <v>0.2395979923438375</v>
       </c>
       <c r="G3" t="n">
-        <v>0.43824381556706</v>
+        <v>0.4378589252361135</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666667</v>

--- a/modelos/OBACON4426113/OBACON4426113_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426113/OBACON4426113_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45040</v>
       </c>
       <c r="B2" t="n">
-        <v>104.2981972517904</v>
+        <v>104.2981972994436</v>
       </c>
       <c r="C2" t="n">
-        <v>47.40303755863915</v>
+        <v>47.29764703193958</v>
       </c>
       <c r="D2" t="n">
-        <v>160.217466604566</v>
+        <v>163.8508576863337</v>
       </c>
       <c r="E2" t="n">
         <v>108</v>
@@ -496,13 +496,13 @@
         <v>45048</v>
       </c>
       <c r="B3" t="n">
-        <v>136.8723613781092</v>
+        <v>136.8723604438946</v>
       </c>
       <c r="C3" t="n">
-        <v>79.45619383009674</v>
+        <v>78.96925701487135</v>
       </c>
       <c r="D3" t="n">
-        <v>192.5541427221303</v>
+        <v>196.0199192300362</v>
       </c>
       <c r="E3" t="n">
         <v>180</v>
@@ -516,13 +516,13 @@
         <v>45055</v>
       </c>
       <c r="B4" t="n">
-        <v>139.6251774488827</v>
+        <v>139.625177448875</v>
       </c>
       <c r="C4" t="n">
-        <v>81.62286102849794</v>
+        <v>84.22164709182225</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1145786911126</v>
+        <v>197.7800350152513</v>
       </c>
       <c r="E4" t="n">
         <v>132</v>
@@ -536,13 +536,13 @@
         <v>45062</v>
       </c>
       <c r="B5" t="n">
-        <v>141.2042528160497</v>
+        <v>141.2042528160939</v>
       </c>
       <c r="C5" t="n">
-        <v>84.41686133932615</v>
+        <v>84.14687943590602</v>
       </c>
       <c r="D5" t="n">
-        <v>198.3257465389063</v>
+        <v>201.5915606890463</v>
       </c>
       <c r="E5" t="n">
         <v>48</v>
@@ -617,22 +617,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>13.70334358665195</v>
+        <v>13.70334323384665</v>
       </c>
       <c r="C2" t="n">
-        <v>3.701802748209573</v>
+        <v>3.701802700556399</v>
       </c>
       <c r="D2" t="n">
-        <v>3.701802748209573</v>
+        <v>3.701802700556399</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03427595137231086</v>
+        <v>0.03427595093107777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03427595137231086</v>
+        <v>0.03427595093107777</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0348736145302181</v>
+        <v>0.03487361407346346</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -643,22 +643,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>3535.056429075151</v>
+        <v>3535.056455938173</v>
       </c>
       <c r="C3" t="n">
-        <v>59.4563405287876</v>
+        <v>59.45634075469304</v>
       </c>
       <c r="D3" t="n">
-        <v>47.98568962894102</v>
+        <v>47.98568994035806</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7463732517232469</v>
+        <v>0.7463732534535616</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2395979923438375</v>
+        <v>0.2395979975339186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4378589252361135</v>
+        <v>0.4378589274691764</v>
       </c>
       <c r="H3" t="n">
         <v>0.6666666666666667</v>

--- a/modelos/OBACON4426113/OBACON4426113_Sell in_metricas.xlsx
+++ b/modelos/OBACON4426113/OBACON4426113_Sell in_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>104.2981972994436</v>
       </c>
       <c r="C2" t="n">
-        <v>47.29764703193958</v>
+        <v>49.24773289538481</v>
       </c>
       <c r="D2" t="n">
-        <v>163.8508576863337</v>
+        <v>162.460382091146</v>
       </c>
       <c r="E2" t="n">
         <v>108</v>
@@ -499,10 +499,10 @@
         <v>136.8723604438946</v>
       </c>
       <c r="C3" t="n">
-        <v>78.96925701487135</v>
+        <v>81.35667499377001</v>
       </c>
       <c r="D3" t="n">
-        <v>196.0199192300362</v>
+        <v>195.2987610814234</v>
       </c>
       <c r="E3" t="n">
         <v>180</v>
@@ -519,10 +519,10 @@
         <v>139.625177448875</v>
       </c>
       <c r="C4" t="n">
-        <v>84.22164709182225</v>
+        <v>83.25741327535559</v>
       </c>
       <c r="D4" t="n">
-        <v>197.7800350152513</v>
+        <v>196.1949185992278</v>
       </c>
       <c r="E4" t="n">
         <v>132</v>
@@ -539,10 +539,10 @@
         <v>141.2042528160939</v>
       </c>
       <c r="C5" t="n">
-        <v>84.14687943590602</v>
+        <v>86.87254295162764</v>
       </c>
       <c r="D5" t="n">
-        <v>201.5915606890463</v>
+        <v>200.4357134885305</v>
       </c>
       <c r="E5" t="n">
         <v>48</v>
